--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="214">
   <si>
     <t>MATRIX</t>
   </si>
@@ -428,6 +428,9 @@
     <t xml:space="preserve">On successfull creation: "Service created Successfully". On failour : "Create Service failed, please check values of parameters" </t>
   </si>
   <si>
+    <t>quantity=5</t>
+  </si>
+  <si>
     <t>7
 (servicep::Service owner)</t>
   </si>
@@ -505,6 +508,9 @@
   <si>
     <t>«YES»   on success.
 «NO»   on failure</t>
+  </si>
+  <si>
+    <t>instance=4</t>
   </si>
   <si>
     <t>11
@@ -1639,39 +1645,48 @@
       <c r="A12" s="2">
         <v>7.0</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1679,26 +1694,26 @@
         <v>8.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -1706,25 +1721,25 @@
         <v>9.0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7"/>
     </row>
@@ -1733,53 +1748,62 @@
         <v>10.0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>11.0</v>
       </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1787,26 +1811,26 @@
         <v>12.0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1814,26 +1838,26 @@
         <v>13.0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -1841,26 +1865,26 @@
         <v>15.0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1868,26 +1892,26 @@
         <v>16.0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -1912,23 +1936,23 @@
         <v>18.0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7"/>
     </row>
@@ -1937,26 +1961,26 @@
         <v>19.0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -1964,26 +1988,26 @@
         <v>20.0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -1991,26 +2015,26 @@
         <v>21.0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -2018,26 +2042,26 @@
         <v>22.0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27">
@@ -2045,24 +2069,24 @@
         <v>23.0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
@@ -2070,26 +2094,26 @@
         <v>24.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
@@ -2097,26 +2121,26 @@
         <v>25.0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
@@ -2124,26 +2148,26 @@
         <v>26.0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
@@ -2151,24 +2175,24 @@
         <v>27.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -2176,24 +2200,24 @@
         <v>28.0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -2201,26 +2225,26 @@
         <v>29.0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -2228,26 +2252,26 @@
         <v>30.0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
@@ -2255,24 +2279,24 @@
         <v>31.0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
@@ -2287,17 +2311,17 @@
         <v>22</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37">
@@ -2309,20 +2333,20 @@
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -2333,20 +2357,20 @@
         <v>34.0</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M38" s="21"/>
     </row>
@@ -2385,17 +2409,17 @@
         <v>51.0</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -2414,7 +2438,9 @@
     <hyperlink r:id="rId1" ref="B6"/>
     <hyperlink r:id="rId2" ref="J9"/>
     <hyperlink r:id="rId3" ref="J11"/>
+    <hyperlink r:id="rId4" ref="B12"/>
+    <hyperlink r:id="rId5" ref="B16"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -412,7 +412,7 @@
         <v>Synx-Cat</v>
       </c>
       <c r="B3" t="str">
-        <v>Active (yes=1, no=0)</v>
+        <v>Active</v>
       </c>
       <c r="C3" t="str">
         <v>Url</v>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <v>stig.cioty.com/zorr</v>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
         <v>stig.cioty.com/zorro</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
         <v>stig.cioty.com/zorro</v>
@@ -595,7 +595,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="str">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>stig.cioty.com/zorro</v>
+      </c>
+      <c r="D11" t="str">
+        <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>objectid=2</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Test langlytting</v>
       </c>
       <c r="G11" t="str" xml:space="preserve">
         <v xml:space="preserve">4
@@ -760,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <v>stig.cioty.com/zorro</v>
@@ -802,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
         <v>stig.cioty.com/zorro</v>
@@ -915,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <v>stig.cioty.com/zorro</v>

--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -397,13 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>MATRIX</v>
       </c>
     </row>
@@ -427,15 +427,21 @@
         <v>Test</v>
       </c>
       <c r="G3" t="str">
+        <v>Count</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Pause, ms</v>
+      </c>
+      <c r="I3" t="str">
         <v>Synx-Cat V1</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>Synx-Cat V2</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <v>Command Name</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <v>Usage</v>
       </c>
     </row>
@@ -446,10 +452,10 @@
       <c r="B4" t="str">
         <v>0</v>
       </c>
-      <c r="G4" t="str">
-        <v>0</v>
-      </c>
       <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
         <v>Send Command []</v>
       </c>
     </row>
@@ -473,12 +479,18 @@
         <v>Ok</v>
       </c>
       <c r="G5" t="str">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <v>600</v>
+      </c>
+      <c r="I5" t="str">
         <v>1</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <v>Json is used to send inside the POST message. This version does not need synx cat 1 to be specified in the header-</v>
       </c>
-      <c r="I5" t="str">
+      <c r="K5" t="str">
         <v>Send Data []</v>
       </c>
     </row>
@@ -521,13 +533,13 @@
       <c r="F7" t="str">
         <v>Wrong token</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" t="str">
         <v>1</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <v>Json is used to send inside the POST message. This version does not need synx cat 1 to be specified in the header-</v>
       </c>
-      <c r="I7" t="str">
+      <c r="K7" t="str">
         <v>Send Data []</v>
       </c>
     </row>
@@ -550,13 +562,13 @@
       <c r="F8" t="str">
         <v>Unknown url parameter</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <v>1</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <v>Json is used to send inside the POST message. This version does not need synx cat 1 to be specified in the header-</v>
       </c>
-      <c r="I8" t="str">
+      <c r="K8" t="str">
         <v>Send Data []</v>
       </c>
     </row>
@@ -567,11 +579,11 @@
       <c r="B9" t="str">
         <v>0</v>
       </c>
-      <c r="G9" t="str" xml:space="preserve">
+      <c r="I9" t="str" xml:space="preserve">
         <v xml:space="preserve">2
 (Servicep::Service owner)</v>
       </c>
-      <c r="I9" t="str">
+      <c r="K9" t="str">
         <v>Set Public Ghost (default = true)</v>
       </c>
     </row>
@@ -582,11 +594,11 @@
       <c r="B10" t="str">
         <v>0</v>
       </c>
-      <c r="G10" t="str" xml:space="preserve">
+      <c r="I10" t="str" xml:space="preserve">
         <v xml:space="preserve">3
 (Servicep::Service owner)</v>
       </c>
-      <c r="I10" t="str">
+      <c r="K10" t="str">
         <v>Set MapID</v>
       </c>
     </row>
@@ -609,14 +621,14 @@
       <c r="F11" t="str">
         <v>Test langlytting</v>
       </c>
-      <c r="G11" t="str" xml:space="preserve">
+      <c r="I11" t="str" xml:space="preserve">
         <v xml:space="preserve">4
 Communication::Consumer owner)</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <v xml:space="preserve">Websocket= send and receive against own service. channel added to the uri after the service name. For http we still use synx cat : 4 in header. Default json for versjon 2. </v>
       </c>
-      <c r="I11" t="str">
+      <c r="K11" t="str">
         <v>receive data, receive cmd (ghost 0)</v>
       </c>
     </row>
@@ -627,10 +639,10 @@
       <c r="B12" t="str">
         <v>0</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <v>5 websocket</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <v>legges inn i ny versjon- for å kunne skille mellom http og websocket i proxy</v>
       </c>
     </row>
@@ -650,13 +662,13 @@
       <c r="E13" t="str">
         <v>xml=&lt;rtw&gt;&lt;testid&gt;&lt;/testid&gt;&lt;name&gt;&lt;/name&gt;&lt;/rtw&gt;&amp;cmdxml=&lt;cmd&gt;&lt;execute&gt;&lt;/execute&gt;&lt;/cmd&gt;&amp;webjs=Hello demo2&amp;timeforchannelrequest=60&amp;desc=Lampservice from nornirsshop&amp;masterScript=YWFhYWFhYWFhYQo=&amp;authToken=lk34jroi2jdvllASLDKJF2sfSDFH2jloijr2o3ndf&amp;searchTerms=test&amp;username=bjornx@hotmail.os</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <v>6 (servicep::Create Service)</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <v>Alltid json struktur. og trenger ikke oppdatere alle paramter samtidig. tarbort desc og searchword</v>
       </c>
-      <c r="I13" t="str">
+      <c r="K13" t="str">
         <v>Create service</v>
       </c>
     </row>
@@ -676,14 +688,14 @@
       <c r="E14" t="str">
         <v>quantity=5</v>
       </c>
-      <c r="G14" t="str" xml:space="preserve">
+      <c r="I14" t="str" xml:space="preserve">
         <v xml:space="preserve">7
 (servicep::Service owner)</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <v xml:space="preserve">lik versjon 1. </v>
       </c>
-      <c r="I14" t="str">
+      <c r="K14" t="str">
         <v>add ghost (allocater ghost)</v>
       </c>
     </row>
@@ -694,14 +706,14 @@
       <c r="B15" t="str">
         <v>0</v>
       </c>
-      <c r="G15" t="str" xml:space="preserve">
+      <c r="I15" t="str" xml:space="preserve">
         <v xml:space="preserve">8
 (servicep::service owner)</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <v>Parameter i json format.</v>
       </c>
-      <c r="I15" t="str">
+      <c r="K15" t="str">
         <v>create link</v>
       </c>
     </row>
@@ -712,13 +724,13 @@
       <c r="B16" t="str">
         <v>0</v>
       </c>
-      <c r="G16" t="str">
+      <c r="I16" t="str">
         <v>9 (USER:USER</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <v>lik parameter</v>
       </c>
-      <c r="I16" t="str">
+      <c r="K16" t="str">
         <v>Create User</v>
       </c>
     </row>
@@ -729,14 +741,14 @@
       <c r="B17" t="str">
         <v>0</v>
       </c>
-      <c r="G17" t="str" xml:space="preserve">
+      <c r="I17" t="str" xml:space="preserve">
         <v xml:space="preserve">10
 Servicep::service owner</v>
       </c>
-      <c r="H17" t="str">
+      <c r="J17" t="str">
         <v>i versjon 2 kan man sette enkelt parametere. fjerner desc og search terms: dette flyttes til micopage seksjon</v>
       </c>
-      <c r="I17" t="str">
+      <c r="K17" t="str">
         <v>Update service</v>
       </c>
     </row>
@@ -756,14 +768,14 @@
       <c r="E18" t="str">
         <v>instance=4</v>
       </c>
-      <c r="G18" t="str" xml:space="preserve">
+      <c r="I18" t="str" xml:space="preserve">
         <v xml:space="preserve">11
 Service::service owner</v>
       </c>
-      <c r="H18" t="str">
+      <c r="J18" t="str">
         <v xml:space="preserve">lik versjon 1. </v>
       </c>
-      <c r="I18" t="str">
+      <c r="K18" t="str">
         <v>remove ghost (ghost inside RTW, not connection intance)</v>
       </c>
     </row>
@@ -780,14 +792,14 @@
       <c r="F19" t="str">
         <v>Ok</v>
       </c>
-      <c r="G19" t="str" xml:space="preserve">
+      <c r="I19" t="str" xml:space="preserve">
         <v xml:space="preserve">12
 service::serviceowner</v>
       </c>
-      <c r="H19" t="str">
+      <c r="J19" t="str">
         <v>Fjernes fra ny versjon. Create Draape.</v>
       </c>
-      <c r="I19" t="str">
+      <c r="K19" t="str">
         <v>depricated ( alt slike ting skal i draape DB)</v>
       </c>
     </row>
@@ -798,14 +810,14 @@
       <c r="B20" t="str">
         <v>0</v>
       </c>
-      <c r="G20" t="str" xml:space="preserve">
+      <c r="I20" t="str" xml:space="preserve">
         <v xml:space="preserve">13
  Ghost p::Service owner</v>
       </c>
-      <c r="H20" t="str">
+      <c r="J20" t="str">
         <v xml:space="preserve">list synxcat 4 and synxcat 5. </v>
       </c>
-      <c r="I20" t="str">
+      <c r="K20" t="str">
         <v>list active conection for synx cat 4 and synx cat 5 (websocket)</v>
       </c>
     </row>
@@ -825,14 +837,14 @@
       <c r="E21" t="str">
         <v>description=jadamasa&amp;schemaDescription=detteeretbraskjema&amp;pictureURL=https://upload.wikimedia.org/wikipedia/commons/3/35/Fairy_Meadows_and_the_view_of_Nanga_Parbat.jpg</v>
       </c>
-      <c r="G21" t="str" xml:space="preserve">
+      <c r="I21" t="str" xml:space="preserve">
         <v xml:space="preserve">15
 service::Service owner</v>
       </c>
-      <c r="H21" t="str">
+      <c r="J21" t="str">
         <v>this rutine is handled outside RTW.</v>
       </c>
-      <c r="I21" t="str">
+      <c r="K21" t="str">
         <v>Update/create micopage</v>
       </c>
     </row>
@@ -840,14 +852,14 @@
       <c r="A22" t="str">
         <v>16</v>
       </c>
-      <c r="G22" t="str" xml:space="preserve">
+      <c r="I22" t="str" xml:space="preserve">
         <v xml:space="preserve">16
 others::consumer</v>
       </c>
-      <c r="H22" t="str">
+      <c r="J22" t="str">
         <v xml:space="preserve">new parameter is transaction timeout, -&gt; time set when approval times out. If timeout are executed the state will go back to previous owner. </v>
       </c>
-      <c r="I22" t="str">
+      <c r="K22" t="str">
         <v>change owner of ghost</v>
       </c>
     </row>
@@ -855,10 +867,10 @@
       <c r="A23" t="str">
         <v>17</v>
       </c>
-      <c r="G23" t="str">
+      <c r="I23" t="str">
         <v>17</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <v>TBD</v>
       </c>
     </row>
@@ -866,14 +878,14 @@
       <c r="A24" t="str">
         <v>18</v>
       </c>
-      <c r="G24" t="str" xml:space="preserve">
+      <c r="I24" t="str" xml:space="preserve">
         <v xml:space="preserve">18
 others::consumer</v>
       </c>
-      <c r="H24" t="str">
+      <c r="J24" t="str">
         <v>return json list ( current csv format is depricated)</v>
       </c>
-      <c r="I24" t="str">
+      <c r="K24" t="str">
         <v>list ghost in limbo</v>
       </c>
     </row>
@@ -881,14 +893,14 @@
       <c r="A25" t="str">
         <v>19</v>
       </c>
-      <c r="G25" t="str" xml:space="preserve">
+      <c r="I25" t="str" xml:space="preserve">
         <v xml:space="preserve">19
 others::consumer</v>
       </c>
-      <c r="H25" t="str">
+      <c r="J25" t="str">
         <v>json structure</v>
       </c>
-      <c r="I25" t="str">
+      <c r="K25" t="str">
         <v>set owner on ghost</v>
       </c>
     </row>
@@ -896,14 +908,14 @@
       <c r="A26" t="str">
         <v>20</v>
       </c>
-      <c r="G26" t="str" xml:space="preserve">
+      <c r="I26" t="str" xml:space="preserve">
         <v xml:space="preserve">20
 others::consumer</v>
       </c>
-      <c r="H26" t="str">
+      <c r="J26" t="str">
         <v>json structure</v>
       </c>
-      <c r="I26" t="str">
+      <c r="K26" t="str">
         <v>get resources</v>
       </c>
     </row>
@@ -911,14 +923,14 @@
       <c r="A27" t="str">
         <v>21</v>
       </c>
-      <c r="G27" t="str" xml:space="preserve">
+      <c r="I27" t="str" xml:space="preserve">
         <v xml:space="preserve">21
 Other:: dataowners</v>
       </c>
-      <c r="H27" t="str">
+      <c r="J27" t="str">
         <v>json structure</v>
       </c>
-      <c r="I27" t="str">
+      <c r="K27" t="str">
         <v>denide ownership</v>
       </c>
     </row>
@@ -938,14 +950,14 @@
       <c r="F28" t="str">
         <v>Ok</v>
       </c>
-      <c r="G28" t="str" xml:space="preserve">
+      <c r="I28" t="str" xml:space="preserve">
         <v xml:space="preserve">22
   Domainp::Domain owner</v>
       </c>
-      <c r="H28" t="str">
+      <c r="J28" t="str">
         <v>json structure</v>
       </c>
-      <c r="I28" t="str">
+      <c r="K28" t="str">
         <v>get domain resources</v>
       </c>
     </row>
@@ -953,11 +965,11 @@
       <c r="A29" t="str">
         <v>23</v>
       </c>
-      <c r="G29" t="str" xml:space="preserve">
+      <c r="I29" t="str" xml:space="preserve">
         <v xml:space="preserve">23
 service::serviceowner</v>
       </c>
-      <c r="I29" t="str">
+      <c r="K29" t="str">
         <v>set new token</v>
       </c>
     </row>
@@ -965,14 +977,14 @@
       <c r="A30" t="str">
         <v>24</v>
       </c>
-      <c r="G30" t="str" xml:space="preserve">
+      <c r="I30" t="str" xml:space="preserve">
         <v xml:space="preserve">24
 service::serviceowner</v>
       </c>
-      <c r="H30" t="str">
+      <c r="J30" t="str">
         <v xml:space="preserve">need to work on synx cat 4 and synx cat 5. </v>
       </c>
-      <c r="I30" t="str">
+      <c r="K30" t="str">
         <v>Kill connection</v>
       </c>
     </row>
@@ -980,14 +992,14 @@
       <c r="A31" t="str">
         <v>25</v>
       </c>
-      <c r="G31" t="str" xml:space="preserve">
+      <c r="I31" t="str" xml:space="preserve">
         <v xml:space="preserve">25
 servicep::servicep</v>
       </c>
-      <c r="H31" t="str">
+      <c r="J31" t="str">
         <v>json. The parameter list is depricated. The new parameters is token, RefGhostID (full path) and objectid (primary)</v>
       </c>
-      <c r="I31" t="str">
+      <c r="K31" t="str">
         <v>add morped ghost</v>
       </c>
     </row>
@@ -995,14 +1007,14 @@
       <c r="A32" t="str">
         <v>26</v>
       </c>
-      <c r="G32" t="str" xml:space="preserve">
+      <c r="I32" t="str" xml:space="preserve">
         <v xml:space="preserve">26
 service::servicespecific</v>
       </c>
-      <c r="H32" t="str">
+      <c r="J32" t="str">
         <v>json. The parameter list is depricated. The new parameters is token, RefGhostID (full path) and objectid (primary)</v>
       </c>
-      <c r="I32" t="str">
+      <c r="K32" t="str">
         <v>remove morphed ghost</v>
       </c>
     </row>
@@ -1010,11 +1022,11 @@
       <c r="A33" t="str">
         <v>27</v>
       </c>
-      <c r="G33" t="str" xml:space="preserve">
+      <c r="I33" t="str" xml:space="preserve">
         <v xml:space="preserve">27
 other::dataowner</v>
       </c>
-      <c r="I33" t="str">
+      <c r="K33" t="str">
         <v>give read access</v>
       </c>
     </row>
@@ -1022,11 +1034,11 @@
       <c r="A34" t="str">
         <v>28</v>
       </c>
-      <c r="G34" t="str" xml:space="preserve">
+      <c r="I34" t="str" xml:space="preserve">
         <v xml:space="preserve">28
 other::dataowner</v>
       </c>
-      <c r="I34" t="str">
+      <c r="K34" t="str">
         <v>remove read access</v>
       </c>
     </row>
@@ -1034,14 +1046,14 @@
       <c r="A35" t="str">
         <v>29</v>
       </c>
-      <c r="G35" t="str" xml:space="preserve">
+      <c r="I35" t="str" xml:space="preserve">
         <v xml:space="preserve">29
 servvicep::servicespecific</v>
       </c>
-      <c r="H35" t="str">
+      <c r="J35" t="str">
         <v>fjerne token, bare bruke brukernavn og authtoken</v>
       </c>
-      <c r="I35" t="str">
+      <c r="K35" t="str">
         <v>delete user</v>
       </c>
     </row>
@@ -1049,14 +1061,14 @@
       <c r="A36" t="str">
         <v>30</v>
       </c>
-      <c r="G36" t="str" xml:space="preserve">
+      <c r="I36" t="str" xml:space="preserve">
         <v xml:space="preserve">30
 Domain::domain owners</v>
       </c>
-      <c r="H36" t="str">
+      <c r="J36" t="str">
         <v>json</v>
       </c>
-      <c r="I36" t="str">
+      <c r="K36" t="str">
         <v>get subdomains</v>
       </c>
     </row>
@@ -1064,11 +1076,11 @@
       <c r="A37" t="str">
         <v>31</v>
       </c>
-      <c r="G37" t="str" xml:space="preserve">
+      <c r="I37" t="str" xml:space="preserve">
         <v xml:space="preserve">31
 Domain:doain owners</v>
       </c>
-      <c r="I37" t="str">
+      <c r="K37" t="str">
         <v>add/remove domain</v>
       </c>
     </row>
@@ -1076,10 +1088,10 @@
       <c r="A38" t="str">
         <v>32</v>
       </c>
-      <c r="G38" t="str">
+      <c r="I38" t="str">
         <v>32</v>
       </c>
-      <c r="I38" t="str">
+      <c r="K38" t="str">
         <v>get ghost status</v>
       </c>
     </row>
@@ -1087,10 +1099,10 @@
       <c r="A39" t="str">
         <v>33</v>
       </c>
-      <c r="G39" t="str">
+      <c r="I39" t="str">
         <v>33</v>
       </c>
-      <c r="I39" t="str">
+      <c r="K39" t="str">
         <v>Set Domain</v>
       </c>
     </row>
@@ -1098,13 +1110,13 @@
       <c r="A40" t="str">
         <v>34</v>
       </c>
-      <c r="G40" t="str">
+      <c r="I40" t="str">
         <v>34</v>
       </c>
-      <c r="H40" t="str">
+      <c r="J40" t="str">
         <v>need to work in version 2</v>
       </c>
-      <c r="I40" t="str">
+      <c r="K40" t="str">
         <v>change owner of subdomain</v>
       </c>
     </row>
@@ -1112,7 +1124,7 @@
       <c r="A41" t="str">
         <v>35</v>
       </c>
-      <c r="G41" t="str">
+      <c r="I41" t="str">
         <v>35</v>
       </c>
     </row>
@@ -1120,7 +1132,7 @@
       <c r="A42" t="str">
         <v>36</v>
       </c>
-      <c r="G42" t="str">
+      <c r="I42" t="str">
         <v>36</v>
       </c>
     </row>
@@ -1128,16 +1140,16 @@
       <c r="A43" t="str">
         <v>51</v>
       </c>
-      <c r="G43" t="str">
+      <c r="I43" t="str">
         <v>51 service owner</v>
       </c>
-      <c r="I43" t="str">
+      <c r="K43" t="str">
         <v>enable system error log</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -621,6 +621,9 @@
       <c r="F11" t="str">
         <v>Test langlytting</v>
       </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
       <c r="I11" t="str" xml:space="preserve">
         <v xml:space="preserve">4
 Communication::Consumer owner)</v>

--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -467,13 +467,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="str">
-        <v>stig.cioty.com/zorro</v>
+        <v>stig.cioty.com/diddi</v>
       </c>
       <c r="D5" t="str">
         <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
       </c>
       <c r="E5" t="str">
-        <v>objectid=2&amp;txt=PerSpellmann&amp;hei=DiddiOgLissi</v>
+        <v>objectid=2&amp;voff=DiddiOgLissi</v>
       </c>
       <c r="F5" t="str">
         <v>Ok</v>

--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -473,7 +473,7 @@
         <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
       </c>
       <c r="E5" t="str">
-        <v>objectid=2&amp;voff=DiddiOgLissi</v>
+        <v>objectid=2&amp;voff=DiddiOgLissi&amp;tur=Brusand</v>
       </c>
       <c r="F5" t="str">
         <v>Ok</v>
@@ -610,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v>stig.cioty.com/zorro</v>
+        <v>stig.cioty.com/diddi</v>
       </c>
       <c r="D11" t="str">
         <v>aToken_124b34e931dd12fa57b28be8d56e6dff371cafe3570ab847e49f87012ff2eca0</v>
       </c>
       <c r="E11" t="str">
-        <v>objectid=2</v>
+        <v>objectid=1</v>
       </c>
       <c r="F11" t="str">
         <v>Test langlytting</v>

--- a/SynxCat_test_sheet.xlsx
+++ b/SynxCat_test_sheet.xlsx
@@ -479,7 +479,7 @@
         <v>Ok</v>
       </c>
       <c r="G5" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5" t="str">
         <v>600</v>
